--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n8841357\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Task Assignment - Sprint 2</t>
   </si>
@@ -102,17 +102,25 @@
   </si>
   <si>
     <t>Must</t>
+  </si>
+  <si>
+    <t>Yoon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,8 +128,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,6 +175,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -176,9 +194,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -193,10 +208,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B3:F15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Story ID" dataDxfId="1"/>
+    <tableColumn id="1" name="Story ID" dataDxfId="0"/>
     <tableColumn id="2" name="Story Title"/>
     <tableColumn id="3" name="Asignee"/>
     <tableColumn id="4" name="Status"/>
@@ -472,24 +487,24 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,7 +521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>8</v>
       </c>
@@ -523,29 +538,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -562,7 +589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -573,18 +600,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>15</v>
       </c>
@@ -595,7 +628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>16</v>
       </c>
@@ -606,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -623,7 +656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>17</v>
       </c>
@@ -634,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -645,7 +678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -657,6 +690,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xero\IFB299\Release, Sprint and Story Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Task Assignment - Sprint 2</t>
   </si>
@@ -110,17 +110,23 @@
   <si>
     <t>Not Complete</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braydon</t>
+  </si>
+  <si>
+    <t>Not Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,13 +134,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -487,24 +493,24 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="2">
         <v>8</v>
       </c>
@@ -538,7 +544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -555,7 +561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>9</v>
       </c>
@@ -572,7 +578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -589,7 +595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -600,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="3">
         <v>14</v>
       </c>
@@ -617,18 +623,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="3">
         <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="3">
         <v>16</v>
       </c>
@@ -639,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -656,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="3">
         <v>17</v>
       </c>
@@ -667,23 +679,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/GitHub/IFB299/Release, Sprint and Story Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Task Assignment - Sprint 2</t>
   </si>
@@ -110,17 +116,23 @@
   <si>
     <t>Not Complete</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braydon</t>
+  </si>
+  <si>
+    <t>Not Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,13 +140,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -486,25 +498,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="216" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>8</v>
       </c>
@@ -538,7 +550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -555,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>9</v>
       </c>
@@ -572,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -589,18 +601,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>14</v>
       </c>
@@ -617,29 +635,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -656,34 +686,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/GitHub/IFB299/Release, Sprint and Story Cards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xero\IFB299\Release, Sprint and Story Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -127,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,24 +499,24 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="2">
         <v>8</v>
       </c>
@@ -550,7 +550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -567,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>9</v>
       </c>
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -601,7 +601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="3">
         <v>14</v>
       </c>
@@ -635,7 +635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="3">
         <v>15</v>
       </c>
@@ -646,13 +646,13 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="3">
         <v>16</v>
       </c>
@@ -669,7 +669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="3">
         <v>17</v>
       </c>
@@ -703,7 +703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>19</v>
       </c>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Task Assignment - Sprint 2</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Braydon</t>
-  </si>
-  <si>
-    <t>Not Complete</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -714,7 +711,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -731,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xero\IFB299\Release, Sprint and Story Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Task Assignment - Sprint 2</t>
   </si>
@@ -119,17 +119,21 @@
   </si>
   <si>
     <t>Braydon</t>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -137,13 +141,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -496,24 +500,24 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,7 +534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>8</v>
       </c>
@@ -547,7 +551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -558,13 +562,13 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>9</v>
       </c>
@@ -575,13 +579,13 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -598,7 +602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -615,7 +619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>14</v>
       </c>
@@ -632,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>15</v>
       </c>
@@ -649,7 +653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>16</v>
       </c>
@@ -666,7 +670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -683,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>17</v>
       </c>
@@ -700,7 +704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -717,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
@@ -736,6 +737,14 @@
       <c r="F15" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -664,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>

--- a/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
+++ b/Release, Sprint and Story Cards/Task Assignment Table - Sprint 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/GitHub/IFB299/Release, Sprint and Story Cards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seantria/Desktop/3rd year uni/IFB299 Application Design and Development/IFB299/Release, Sprint and Story Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
+    <workbookView xWindow="35620" yWindow="2500" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Task Assignment - Sprint 2</t>
   </si>
@@ -122,6 +122,54 @@
   </si>
   <si>
     <t>Not Complete</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>Task Assignment - Sprint 1</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>Accoutn Registration</t>
+  </si>
+  <si>
+    <t>Media Vault Login</t>
+  </si>
+  <si>
+    <t>View My Files</t>
+  </si>
+  <si>
+    <t>Download My Files</t>
+  </si>
+  <si>
+    <t>Upload a File - file explorer</t>
+  </si>
+  <si>
+    <t>Upload a file - drag and drop</t>
+  </si>
+  <si>
+    <t>View/Edit Account Details</t>
+  </si>
+  <si>
+    <t>Reset Forgotten Password</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Add Folder</t>
+  </si>
+  <si>
+    <t>Yoon</t>
+  </si>
+  <si>
+    <t>Delete file</t>
+  </si>
+  <si>
+    <t>Should Have</t>
   </si>
 </sst>
 </file>
@@ -172,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,12 +229,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -221,8 +288,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B3:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B18:F30" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B18:F30"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Story ID" dataDxfId="2"/>
+    <tableColumn id="2" name="Story Title"/>
+    <tableColumn id="3" name="Asignee"/>
+    <tableColumn id="4" name="Status"/>
+    <tableColumn id="5" name="Importance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="B3:F14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B3:F14"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Story ID" dataDxfId="0"/>
     <tableColumn id="2" name="Story Title"/>
@@ -497,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -514,7 +595,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -536,13 +617,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -552,34 +633,34 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="2">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -587,10 +668,10 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -603,14 +684,14 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>10</v>
+      <c r="B8" s="2">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -620,34 +701,34 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>14</v>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -655,13 +736,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -672,13 +753,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -689,69 +770,271 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>17</v>
+      <c r="B14" s="3">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E30" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>